--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_13-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_13-52.xlsx
@@ -59,6 +59,12 @@
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
+    <t>BENDAX 200MG 6 TAB.</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -119,6 +128,12 @@
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>MELATEX LIGHTENING INTIMATE CLEANSER</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -138,6 +153,9 @@
   </si>
   <si>
     <t>0:12</t>
+  </si>
+  <si>
+    <t>REPASEEN CREAM CREAM</t>
   </si>
   <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
@@ -932,17 +950,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -964,7 +982,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
@@ -990,7 +1008,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -1016,7 +1034,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -1042,11 +1060,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1062,17 +1080,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1094,11 +1112,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1114,17 +1132,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1132,7 +1150,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1140,17 +1158,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1158,7 +1176,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1166,17 +1184,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1184,7 +1202,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1192,17 +1210,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1210,7 +1228,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1218,13 +1236,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1236,7 +1254,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1244,17 +1262,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.040000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1262,7 +1280,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1270,13 +1288,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1288,7 +1306,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1296,13 +1314,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1314,7 +1332,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1322,17 +1340,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1354,7 +1372,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>136.5</v>
+        <v>186</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1374,13 +1392,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1392,7 +1410,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1400,13 +1418,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>68.25</v>
+        <v>92</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1418,7 +1436,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1426,13 +1444,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1444,7 +1462,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1452,17 +1470,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1470,7 +1488,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1478,13 +1496,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>18</v>
+        <v>136.5</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1496,7 +1514,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1504,17 +1522,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>14.1</v>
+        <v>102</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1522,7 +1540,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1530,13 +1548,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>28</v>
+        <v>68.25</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1548,7 +1566,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1562,7 +1580,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1574,7 +1592,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1582,17 +1600,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1618,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1614,7 +1632,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1626,7 +1644,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1640,7 +1658,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1652,7 +1670,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1660,17 +1678,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>5</v>
+        <v>14.1</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>2</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1678,7 +1696,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1686,13 +1704,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>61.109999999999999</v>
+        <v>28</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1704,7 +1722,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1712,13 +1730,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23.5</v>
+        <v>140</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1730,7 +1748,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1738,13 +1756,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1756,7 +1774,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1764,17 +1782,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1782,7 +1800,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1790,13 +1808,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1808,7 +1826,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1816,17 +1834,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1834,7 +1852,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1842,51 +1860,207 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>61.109999999999999</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="26.25" customHeight="1">
-      <c r="K45" s="11">
-        <v>2704.46</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="12">
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>62</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
+        <v>63</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>64</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>15</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
+        <v>65</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
         <v>66</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c t="s" r="F46" s="13">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>8</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
         <v>67</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c t="s" r="I46" s="15">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
         <v>68</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>25</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="24.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c t="s" r="B49" s="7">
+        <v>69</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c t="s" r="H49" s="8">
+        <v>70</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9">
+        <v>25</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
+        <v>71</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
+        <v>64</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="K51" s="11">
+        <v>3473.46</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="12">
+        <v>72</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c t="s" r="F52" s="13">
+        <v>73</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c t="s" r="I52" s="15">
+        <v>74</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="152">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2017,10 +2191,28 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:N52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
